--- a/~Tests/Dawnx.Test/NPOI/test.xlsx
+++ b/~Tests/Dawnx.Test/NPOI/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProjects\Dawnx\~Library\~NPOI\Dawnx.NPOI.Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProjects\Dawnx\~Tests\Dawnx.Test\NPOI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>Suplier</t>
   </si>
@@ -249,6 +249,10 @@
   </si>
   <si>
     <t>J5</t>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1135,25 +1139,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1161,224 +1166,242 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>43101</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <f>A2 &amp; "-"&amp;B2</f>
         <v>Company 101-Ag</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>43101</v>
       </c>
-      <c r="I2" s="2" t="str">
-        <f>F2 &amp; "-"&amp;G2</f>
+      <c r="J2" s="2" t="str">
+        <f>G2 &amp; "-"&amp;H2</f>
         <v>Company 101-Ag</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
         <v>43101</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D8" si="0">A3 &amp; "-"&amp;B3</f>
+      <c r="E3" t="str">
+        <f>A3 &amp; "-"&amp;B3</f>
         <v>Company 101-Ag</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>43101</v>
       </c>
-      <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I8" si="1">F3 &amp; "-"&amp;G3</f>
+      <c r="J3" s="2" t="str">
+        <f t="shared" ref="J3:J8" si="0">G3 &amp; "-"&amp;H3</f>
         <v>Company 101-Ag</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
         <v>43102</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
+        <f>A4 &amp; "-"&amp;B4</f>
+        <v>Company 101-Ag</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3">
+        <v>43102</v>
+      </c>
+      <c r="J4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Company 101-Ag</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3">
-        <v>43102</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Company 101-Ag</v>
-      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
         <v>43102</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
+        <f>A5 &amp; "-"&amp;B5</f>
+        <v>Company 101-Ag</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3">
+        <v>43102</v>
+      </c>
+      <c r="J5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Company 101-Ag</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3">
-        <v>43102</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Company 101-Ag</v>
-      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
         <v>43103</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E6" t="str">
+        <f>A6 &amp; "-"&amp;B6</f>
+        <v>Company 102-Ag</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3">
+        <v>43103</v>
+      </c>
+      <c r="J6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Company 102-Ag</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3">
-        <v>43103</v>
-      </c>
-      <c r="I6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Company 102-Ag</v>
-      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>43103</v>
       </c>
-      <c r="D7" t="str">
+      <c r="E7" t="str">
+        <f>A7 &amp; "-"&amp;B7</f>
+        <v>Company 102-Cu</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="3">
+        <v>43103</v>
+      </c>
+      <c r="J7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Company 102-Cu</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="3">
-        <v>43103</v>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Company 102-Cu</v>
-      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>43104</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="str">
+        <f>A8 &amp; "-"&amp;B8</f>
+        <v>Company 102-Cu</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3">
+        <v>43104</v>
+      </c>
+      <c r="J8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Company 102-Cu</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="3">
-        <v>43104</v>
-      </c>
-      <c r="I8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Company 102-Cu</v>
-      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="64"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="64"/>
     </row>
   </sheetData>

--- a/~Tests/Dawnx.Test/NPOI/test.xlsx
+++ b/~Tests/Dawnx.Test/NPOI/test.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dawnx" sheetId="1" r:id="rId1"/>
     <sheet name="Legend" sheetId="3" r:id="rId2"/>
+    <sheet name="ProductOrder" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
@@ -1141,7 +1142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1201,7 +1202,7 @@
         <v>43101</v>
       </c>
       <c r="E2" t="str">
-        <f>A2 &amp; "-"&amp;B2</f>
+        <f t="shared" ref="E2:E8" si="0">A2 &amp; "-"&amp;B2</f>
         <v>Company 101-Ag</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1232,7 +1233,7 @@
         <v>43101</v>
       </c>
       <c r="E3" t="str">
-        <f>A3 &amp; "-"&amp;B3</f>
+        <f t="shared" si="0"/>
         <v>Company 101-Ag</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1245,7 +1246,7 @@
         <v>43101</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J8" si="0">G3 &amp; "-"&amp;H3</f>
+        <f t="shared" ref="J3:J8" si="1">G3 &amp; "-"&amp;H3</f>
         <v>Company 101-Ag</v>
       </c>
     </row>
@@ -1263,7 +1264,7 @@
         <v>43102</v>
       </c>
       <c r="E4" t="str">
-        <f>A4 &amp; "-"&amp;B4</f>
+        <f t="shared" si="0"/>
         <v>Company 101-Ag</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1276,7 +1277,7 @@
         <v>43102</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Company 101-Ag</v>
       </c>
     </row>
@@ -1294,7 +1295,7 @@
         <v>43102</v>
       </c>
       <c r="E5" t="str">
-        <f>A5 &amp; "-"&amp;B5</f>
+        <f t="shared" si="0"/>
         <v>Company 101-Ag</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1307,7 +1308,7 @@
         <v>43102</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Company 101-Ag</v>
       </c>
     </row>
@@ -1325,7 +1326,7 @@
         <v>43103</v>
       </c>
       <c r="E6" t="str">
-        <f>A6 &amp; "-"&amp;B6</f>
+        <f t="shared" si="0"/>
         <v>Company 102-Ag</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1338,7 +1339,7 @@
         <v>43103</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Company 102-Ag</v>
       </c>
     </row>
@@ -1353,7 +1354,7 @@
         <v>43103</v>
       </c>
       <c r="E7" t="str">
-        <f>A7 &amp; "-"&amp;B7</f>
+        <f t="shared" si="0"/>
         <v>Company 102-Cu</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1366,7 +1367,7 @@
         <v>43103</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Company 102-Cu</v>
       </c>
     </row>
@@ -1381,7 +1382,7 @@
         <v>43104</v>
       </c>
       <c r="E8" t="str">
-        <f>A8 &amp; "-"&amp;B8</f>
+        <f t="shared" si="0"/>
         <v>Company 102-Cu</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1394,7 +1395,7 @@
         <v>43104</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Company 102-Cu</v>
       </c>
     </row>
@@ -1626,4 +1627,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="262" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/~Tests/Dawnx.Test/NPOI/test.xlsx
+++ b/~Tests/Dawnx.Test/NPOI/test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="152">
   <si>
     <t>Suplier</t>
   </si>
@@ -254,6 +254,252 @@
   <si>
     <t>Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>SUM(orderdetails.Quantity)</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>MAX(orderdetails.UnitPrice)</t>
+  </si>
+  <si>
+    <t>MIN(orderdetails.UnitPrice)</t>
+  </si>
+  <si>
+    <t>Alice Mutton</t>
+  </si>
+  <si>
+    <t>Aniseed Syrup</t>
+  </si>
+  <si>
+    <t>Boston Crab Meat</t>
+  </si>
+  <si>
+    <t>Camembert Pierrot</t>
+  </si>
+  <si>
+    <t>Carnarvon Tigers</t>
+  </si>
+  <si>
+    <t>Chai</t>
+  </si>
+  <si>
+    <t>Chang</t>
+  </si>
+  <si>
+    <t>Chartreuse verte</t>
+  </si>
+  <si>
+    <t>Chef Anton's Cajun Seasoning</t>
+  </si>
+  <si>
+    <t>Chef Anton's Gumbo Mix</t>
+  </si>
+  <si>
+    <t>Chocolade</t>
+  </si>
+  <si>
+    <t>Côte de Blaye</t>
+  </si>
+  <si>
+    <t>Escargots de Bourgogne</t>
+  </si>
+  <si>
+    <t>Filo Mix</t>
+  </si>
+  <si>
+    <t>Flotemysost</t>
+  </si>
+  <si>
+    <t>Geitost</t>
+  </si>
+  <si>
+    <t>Genen Shouyu</t>
+  </si>
+  <si>
+    <t>Gnocchi di nonna Alice</t>
+  </si>
+  <si>
+    <t>Gorgonzola Telino</t>
+  </si>
+  <si>
+    <t>Grandma's Boysenberry Spread</t>
+  </si>
+  <si>
+    <t>Gravad lax</t>
+  </si>
+  <si>
+    <t>Guaraná Fantástica</t>
+  </si>
+  <si>
+    <t>Gudbrandsdalsost</t>
+  </si>
+  <si>
+    <t>Gula Malacca</t>
+  </si>
+  <si>
+    <t>Gumbär Gummibärchen</t>
+  </si>
+  <si>
+    <t>Gustaf's Knäckebröd</t>
+  </si>
+  <si>
+    <t>Ikura</t>
+  </si>
+  <si>
+    <t>Inlagd Sill</t>
+  </si>
+  <si>
+    <t>Ipoh Coffee</t>
+  </si>
+  <si>
+    <t>Jack's New England Clam Chowder</t>
+  </si>
+  <si>
+    <t>Konbu</t>
+  </si>
+  <si>
+    <t>Lakkalikööri</t>
+  </si>
+  <si>
+    <t>Laughing Lumberjack Lager</t>
+  </si>
+  <si>
+    <t>Longlife Tofu</t>
+  </si>
+  <si>
+    <t>Louisiana Fiery Hot Pepper Sauce</t>
+  </si>
+  <si>
+    <t>Louisiana Hot Spiced Okra</t>
+  </si>
+  <si>
+    <t>Manjimup Dried Apples</t>
+  </si>
+  <si>
+    <t>Mascarpone Fabioli</t>
+  </si>
+  <si>
+    <t>Maxilaku</t>
+  </si>
+  <si>
+    <t>Mishi Kobe Niku</t>
+  </si>
+  <si>
+    <t>Mozzarella di Giovanni</t>
+  </si>
+  <si>
+    <t>Nord-Ost Matjeshering</t>
+  </si>
+  <si>
+    <t>Northwoods Cranberry Sauce</t>
+  </si>
+  <si>
+    <t>NuNuCa Nuß-Nougat-Creme</t>
+  </si>
+  <si>
+    <t>Original Frankfurter grüne Soße</t>
+  </si>
+  <si>
+    <t>Outback Lager</t>
+  </si>
+  <si>
+    <t>Pâté chinois</t>
+  </si>
+  <si>
+    <t>Pavlova</t>
+  </si>
+  <si>
+    <t>Perth Pasties</t>
+  </si>
+  <si>
+    <t>Queso Cabrales</t>
+  </si>
+  <si>
+    <t>Queso Manchego La Pastora</t>
+  </si>
+  <si>
+    <t>Raclette Courdavault</t>
+  </si>
+  <si>
+    <t>Ravioli Angelo</t>
+  </si>
+  <si>
+    <t>Rhönbräu Klosterbier</t>
+  </si>
+  <si>
+    <t>Rogede sild</t>
+  </si>
+  <si>
+    <t>Röd Kaviar</t>
+  </si>
+  <si>
+    <t>Rössle Sauerkraut</t>
+  </si>
+  <si>
+    <t>Sasquatch Ale</t>
+  </si>
+  <si>
+    <t>Schoggi Schokolade</t>
+  </si>
+  <si>
+    <t>Scottish Longbreads</t>
+  </si>
+  <si>
+    <t>Singaporean Hokkien Fried Mee</t>
+  </si>
+  <si>
+    <t>Sir Rodney's Marmalade</t>
+  </si>
+  <si>
+    <t>Sir Rodney's Scones</t>
+  </si>
+  <si>
+    <t>Sirop d'érable</t>
+  </si>
+  <si>
+    <t>Spegesild</t>
+  </si>
+  <si>
+    <t>Steeleye Stout</t>
+  </si>
+  <si>
+    <t>Tarte au sucre</t>
+  </si>
+  <si>
+    <t>Teatime Chocolate Biscuits</t>
+  </si>
+  <si>
+    <t>Thüringer Rostbratwurst</t>
+  </si>
+  <si>
+    <t>Tofu</t>
+  </si>
+  <si>
+    <t>Tourtière</t>
+  </si>
+  <si>
+    <t>Tunnbröd</t>
+  </si>
+  <si>
+    <t>Uncle Bob's Organic Dried Pears</t>
+  </si>
+  <si>
+    <t>Valkoinen suklaa</t>
+  </si>
+  <si>
+    <t>Vegie-spread</t>
+  </si>
+  <si>
+    <t>Wimmers gute Semmelknödel</t>
+  </si>
+  <si>
+    <t>Zaanse koeken</t>
   </si>
 </sst>
 </file>
@@ -1631,12 +1877,1341 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>978</v>
+      </c>
+      <c r="C2">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3">
+        <v>328</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4">
+        <v>1103</v>
+      </c>
+      <c r="C4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E4">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5">
+        <v>1577</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6">
+        <v>539</v>
+      </c>
+      <c r="C6">
+        <v>62.5</v>
+      </c>
+      <c r="D6">
+        <v>62.5</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>828</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8">
+        <v>1057</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9">
+        <v>793</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10">
+        <v>453</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11">
+        <v>298</v>
+      </c>
+      <c r="C11">
+        <v>21.35</v>
+      </c>
+      <c r="D11">
+        <v>21.35</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12">
+        <v>138</v>
+      </c>
+      <c r="C12">
+        <v>12.75</v>
+      </c>
+      <c r="D12">
+        <v>12.75</v>
+      </c>
+      <c r="E12">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13">
+        <v>623</v>
+      </c>
+      <c r="C13">
+        <v>263.5</v>
+      </c>
+      <c r="D13">
+        <v>263.5</v>
+      </c>
+      <c r="E13">
+        <v>210.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14">
+        <v>534</v>
+      </c>
+      <c r="C14">
+        <v>13.25</v>
+      </c>
+      <c r="D14">
+        <v>13.25</v>
+      </c>
+      <c r="E14">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15">
+        <v>500</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16">
+        <v>1057</v>
+      </c>
+      <c r="C16">
+        <v>21.5</v>
+      </c>
+      <c r="D16">
+        <v>21.5</v>
+      </c>
+      <c r="E16">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17">
+        <v>755</v>
+      </c>
+      <c r="C17">
+        <v>2.5</v>
+      </c>
+      <c r="D17">
+        <v>2.5</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18">
+        <v>122</v>
+      </c>
+      <c r="C18">
+        <v>15.5</v>
+      </c>
+      <c r="D18">
+        <v>15.5</v>
+      </c>
+      <c r="E18">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19">
+        <v>1263</v>
+      </c>
+      <c r="C19">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>38</v>
+      </c>
+      <c r="E19">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20">
+        <v>1397</v>
+      </c>
+      <c r="C20">
+        <v>12.5</v>
+      </c>
+      <c r="D20">
+        <v>12.5</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21">
+        <v>301</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22">
+        <v>125</v>
+      </c>
+      <c r="C22">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23">
+        <v>1125</v>
+      </c>
+      <c r="C23">
+        <v>4.5</v>
+      </c>
+      <c r="D23">
+        <v>4.5</v>
+      </c>
+      <c r="E23">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24">
+        <v>714</v>
+      </c>
+      <c r="C24">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>36</v>
+      </c>
+      <c r="E24">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25">
+        <v>601</v>
+      </c>
+      <c r="C25">
+        <v>19.45</v>
+      </c>
+      <c r="D25">
+        <v>19.45</v>
+      </c>
+      <c r="E25">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26">
+        <v>753</v>
+      </c>
+      <c r="C26">
+        <v>31.23</v>
+      </c>
+      <c r="D26">
+        <v>31.23</v>
+      </c>
+      <c r="E26">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27">
+        <v>348</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28">
+        <v>742</v>
+      </c>
+      <c r="C28">
+        <v>31</v>
+      </c>
+      <c r="D28">
+        <v>31</v>
+      </c>
+      <c r="E28">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29">
+        <v>805</v>
+      </c>
+      <c r="C29">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30">
+        <v>580</v>
+      </c>
+      <c r="C30">
+        <v>46</v>
+      </c>
+      <c r="D30">
+        <v>46</v>
+      </c>
+      <c r="E30">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31">
+        <v>981</v>
+      </c>
+      <c r="C31">
+        <v>9.65</v>
+      </c>
+      <c r="D31">
+        <v>9.65</v>
+      </c>
+      <c r="E31">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32">
+        <v>891</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33">
+        <v>981</v>
+      </c>
+      <c r="C33">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34">
+        <v>184</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35">
+        <v>297</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36">
+        <v>745</v>
+      </c>
+      <c r="C36">
+        <v>21.05</v>
+      </c>
+      <c r="D36">
+        <v>21.05</v>
+      </c>
+      <c r="E36">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37">
+        <v>239</v>
+      </c>
+      <c r="C37">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>17</v>
+      </c>
+      <c r="E37">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38">
+        <v>886</v>
+      </c>
+      <c r="C38">
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <v>53</v>
+      </c>
+      <c r="E38">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39">
+        <v>297</v>
+      </c>
+      <c r="C39">
+        <v>32</v>
+      </c>
+      <c r="D39">
+        <v>32</v>
+      </c>
+      <c r="E39">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40">
+        <v>520</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41">
+        <v>95</v>
+      </c>
+      <c r="C41">
+        <v>97</v>
+      </c>
+      <c r="D41">
+        <v>97</v>
+      </c>
+      <c r="E41">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42">
+        <v>806</v>
+      </c>
+      <c r="C42">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D42">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E42">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43">
+        <v>612</v>
+      </c>
+      <c r="C43">
+        <v>25.89</v>
+      </c>
+      <c r="D43">
+        <v>25.89</v>
+      </c>
+      <c r="E43">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44">
+        <v>372</v>
+      </c>
+      <c r="C44">
+        <v>40</v>
+      </c>
+      <c r="D44">
+        <v>40</v>
+      </c>
+      <c r="E44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45">
+        <v>318</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>14</v>
+      </c>
+      <c r="E45">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46">
+        <v>791</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47">
+        <v>817</v>
+      </c>
+      <c r="C47">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48">
+        <v>903</v>
+      </c>
+      <c r="C48">
+        <v>24</v>
+      </c>
+      <c r="D48">
+        <v>24</v>
+      </c>
+      <c r="E48">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49">
+        <v>1158</v>
+      </c>
+      <c r="C49">
+        <v>17.45</v>
+      </c>
+      <c r="D49">
+        <v>17.45</v>
+      </c>
+      <c r="E49">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50">
+        <v>722</v>
+      </c>
+      <c r="C50">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D50">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E50">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51">
+        <v>706</v>
+      </c>
+      <c r="C51">
+        <v>21</v>
+      </c>
+      <c r="D51">
+        <v>21</v>
+      </c>
+      <c r="E51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52">
+        <v>344</v>
+      </c>
+      <c r="C52">
+        <v>38</v>
+      </c>
+      <c r="D52">
+        <v>38</v>
+      </c>
+      <c r="E52">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53">
+        <v>1496</v>
+      </c>
+      <c r="C53">
+        <v>55</v>
+      </c>
+      <c r="D53">
+        <v>55</v>
+      </c>
+      <c r="E53">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54">
+        <v>434</v>
+      </c>
+      <c r="C54">
+        <v>19.5</v>
+      </c>
+      <c r="D54">
+        <v>19.5</v>
+      </c>
+      <c r="E54">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55">
+        <v>1155</v>
+      </c>
+      <c r="C55">
+        <v>7.75</v>
+      </c>
+      <c r="D55">
+        <v>7.75</v>
+      </c>
+      <c r="E55">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56">
+        <v>508</v>
+      </c>
+      <c r="C56">
+        <v>9.5</v>
+      </c>
+      <c r="D56">
+        <v>9.5</v>
+      </c>
+      <c r="E56">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57">
+        <v>293</v>
+      </c>
+      <c r="C57">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <v>15</v>
+      </c>
+      <c r="E57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58">
+        <v>640</v>
+      </c>
+      <c r="C58">
+        <v>45.6</v>
+      </c>
+      <c r="D58">
+        <v>45.6</v>
+      </c>
+      <c r="E58">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59">
+        <v>506</v>
+      </c>
+      <c r="C59">
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <v>14</v>
+      </c>
+      <c r="E59">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60">
+        <v>365</v>
+      </c>
+      <c r="C60">
+        <v>43.9</v>
+      </c>
+      <c r="D60">
+        <v>43.9</v>
+      </c>
+      <c r="E60">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61">
+        <v>799</v>
+      </c>
+      <c r="C61">
+        <v>12.5</v>
+      </c>
+      <c r="D61">
+        <v>12.5</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62">
+        <v>697</v>
+      </c>
+      <c r="C62">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>14</v>
+      </c>
+      <c r="E62">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63">
+        <v>313</v>
+      </c>
+      <c r="C63">
+        <v>81</v>
+      </c>
+      <c r="D63">
+        <v>81</v>
+      </c>
+      <c r="E63">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64">
+        <v>1016</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65">
+        <v>603</v>
+      </c>
+      <c r="C65">
+        <v>28.5</v>
+      </c>
+      <c r="D65">
+        <v>28.5</v>
+      </c>
+      <c r="E65">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66">
+        <v>548</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67">
+        <v>883</v>
+      </c>
+      <c r="C67">
+        <v>18</v>
+      </c>
+      <c r="D67">
+        <v>18</v>
+      </c>
+      <c r="E67">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68">
+        <v>1083</v>
+      </c>
+      <c r="C68">
+        <v>49.3</v>
+      </c>
+      <c r="D68">
+        <v>49.3</v>
+      </c>
+      <c r="E68">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69">
+        <v>723</v>
+      </c>
+      <c r="C69">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D69">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E69">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70">
+        <v>746</v>
+      </c>
+      <c r="C70">
+        <v>123.79</v>
+      </c>
+      <c r="D70">
+        <v>123.79</v>
+      </c>
+      <c r="E70">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71">
+        <v>404</v>
+      </c>
+      <c r="C71">
+        <v>23.25</v>
+      </c>
+      <c r="D71">
+        <v>23.25</v>
+      </c>
+      <c r="E71">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72">
+        <v>755</v>
+      </c>
+      <c r="C72">
+        <v>7.45</v>
+      </c>
+      <c r="D72">
+        <v>7.45</v>
+      </c>
+      <c r="E72">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73">
+        <v>580</v>
+      </c>
+      <c r="C73">
+        <v>9</v>
+      </c>
+      <c r="D73">
+        <v>9</v>
+      </c>
+      <c r="E73">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74">
+        <v>763</v>
+      </c>
+      <c r="C74">
+        <v>30</v>
+      </c>
+      <c r="D74">
+        <v>30</v>
+      </c>
+      <c r="E74">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75">
+        <v>235</v>
+      </c>
+      <c r="C75">
+        <v>16.25</v>
+      </c>
+      <c r="D75">
+        <v>16.25</v>
+      </c>
+      <c r="E75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76">
+        <v>445</v>
+      </c>
+      <c r="C76">
+        <v>43.9</v>
+      </c>
+      <c r="D76">
+        <v>43.9</v>
+      </c>
+      <c r="E76">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77">
+        <v>740</v>
+      </c>
+      <c r="C77">
+        <v>33.25</v>
+      </c>
+      <c r="D77">
+        <v>33.25</v>
+      </c>
+      <c r="E77">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78">
+        <v>485</v>
+      </c>
+      <c r="C78">
+        <v>9.5</v>
+      </c>
+      <c r="D78">
+        <v>9.5</v>
+      </c>
+      <c r="E78">
+        <v>7.6</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/~Tests/Dawnx.Test/NPOI/test.xlsx
+++ b/~Tests/Dawnx.Test/NPOI/test.xlsx
@@ -9,22 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Dawnx" sheetId="1" r:id="rId1"/>
     <sheet name="Legend" sheetId="3" r:id="rId2"/>
     <sheet name="ProductOrder" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="152">
-  <si>
-    <t>Suplier</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="152">
   <si>
     <t>Product</t>
   </si>
@@ -500,13 +497,17 @@
   </si>
   <si>
     <t>Zaanse koeken</t>
+  </si>
+  <si>
+    <t>Smart Merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -521,6 +522,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="63">
     <fill>
@@ -896,7 +903,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -904,207 +911,271 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1386,274 +1457,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" style="62" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="62" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="62"/>
+    <col min="7" max="7" width="11.875" style="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="62" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="62" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="62" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="62" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E2" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="B3" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="61">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="D3" s="64">
+        <v>43101</v>
+      </c>
+      <c r="E3" s="61" t="str">
+        <f t="shared" ref="E3:E9" si="0">A3 &amp; "-"&amp;B3</f>
+        <v>Company 101-Ag</v>
+      </c>
+      <c r="G3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="H3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+      <c r="I3" s="61">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="J3" s="64">
         <v>43101</v>
       </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E8" si="0">A2 &amp; "-"&amp;B2</f>
+      <c r="K3" s="61" t="str">
+        <f t="shared" ref="K3:K9" si="1">G3 &amp; "-"&amp;H3</f>
         <v>Company 101-Ag</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="C4" s="61">
+        <v>2</v>
+      </c>
+      <c r="D4" s="64">
         <v>43101</v>
       </c>
-      <c r="J2" s="2" t="str">
-        <f>G2 &amp; "-"&amp;H2</f>
-        <v>Company 101-Ag</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43101</v>
-      </c>
-      <c r="E3" t="str">
+      <c r="E4" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Company 101-Ag</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="61">
+        <v>2</v>
+      </c>
+      <c r="J4" s="64">
+        <v>43101</v>
+      </c>
+      <c r="K4" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="3">
-        <v>43101</v>
-      </c>
-      <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J8" si="1">G3 &amp; "-"&amp;H3</f>
-        <v>Company 101-Ag</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C5" s="61">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="D5" s="64">
         <v>43102</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E5" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Company 101-Ag</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="61">
         <v>3</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J5" s="64">
+        <v>43102</v>
+      </c>
+      <c r="K5" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="61">
         <v>4</v>
       </c>
-      <c r="I4" s="3">
+      <c r="D6" s="64">
         <v>43102</v>
       </c>
-      <c r="J4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Company 101-Ag</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43102</v>
-      </c>
-      <c r="E5" t="str">
+      <c r="E6" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Company 101-Ag</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="61">
+        <v>4</v>
+      </c>
+      <c r="J6" s="64">
+        <v>43102</v>
+      </c>
+      <c r="K6" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="3">
-        <v>43102</v>
-      </c>
-      <c r="J5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Company 101-Ag</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C7" s="61">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="D7" s="64">
         <v>43103</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E7" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Company 102-Ag</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G7" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="61">
         <v>5</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="J7" s="64">
         <v>43103</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="K7" s="61" t="str">
         <f t="shared" si="1"/>
         <v>Company 102-Ag</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C8" s="61"/>
+      <c r="D8" s="64">
         <v>43103</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E8" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Company 102-Cu</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="67"/>
+      <c r="H8" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="I8" s="61"/>
+      <c r="J8" s="64">
         <v>43103</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="K8" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>Company 102-Cu</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+        <v>-Cu</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C9" s="61"/>
+      <c r="D9" s="64">
         <v>43104</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E9" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Company 102-Cu</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="64">
         <v>43104</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="K9" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>Company 102-Cu</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="64"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="64"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="65"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="5">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H3:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1672,195 +1759,195 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="C3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="23" t="s">
+      <c r="D3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="G3" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="28" t="s">
+      <c r="C4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="33" t="s">
+      <c r="D4" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="36" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="G4" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B5" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="38" t="s">
+      <c r="C5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="43" t="s">
+      <c r="D5" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="46" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+      <c r="G5" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B6" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="48" t="s">
+      <c r="C6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="53" t="s">
+      <c r="D6" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="56" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="59" t="s">
+      <c r="G6" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="H6" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="I6" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="J6" s="60" t="s">
         <v>67</v>
-      </c>
-      <c r="J6" s="63" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1879,7 +1966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -1887,24 +1974,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>73</v>
-      </c>
-      <c r="E1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>978</v>
@@ -1921,7 +2008,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>328</v>
@@ -1938,7 +2025,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4">
         <v>1103</v>
@@ -1955,7 +2042,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>1577</v>
@@ -1972,7 +2059,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>539</v>
@@ -1989,7 +2076,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>828</v>
@@ -2006,7 +2093,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8">
         <v>1057</v>
@@ -2023,7 +2110,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9">
         <v>793</v>
@@ -2040,7 +2127,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>453</v>
@@ -2057,7 +2144,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11">
         <v>298</v>
@@ -2074,7 +2161,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12">
         <v>138</v>
@@ -2091,7 +2178,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13">
         <v>623</v>
@@ -2108,7 +2195,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14">
         <v>534</v>
@@ -2125,7 +2212,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15">
         <v>500</v>
@@ -2142,7 +2229,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16">
         <v>1057</v>
@@ -2159,7 +2246,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17">
         <v>755</v>
@@ -2176,7 +2263,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18">
         <v>122</v>
@@ -2193,7 +2280,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19">
         <v>1263</v>
@@ -2210,7 +2297,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20">
         <v>1397</v>
@@ -2227,7 +2314,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21">
         <v>301</v>
@@ -2244,7 +2331,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22">
         <v>125</v>
@@ -2261,7 +2348,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23">
         <v>1125</v>
@@ -2278,7 +2365,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24">
         <v>714</v>
@@ -2295,7 +2382,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25">
         <v>601</v>
@@ -2312,7 +2399,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26">
         <v>753</v>
@@ -2329,7 +2416,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27">
         <v>348</v>
@@ -2346,7 +2433,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28">
         <v>742</v>
@@ -2363,7 +2450,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29">
         <v>805</v>
@@ -2380,7 +2467,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30">
         <v>580</v>
@@ -2397,7 +2484,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31">
         <v>981</v>
@@ -2414,7 +2501,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32">
         <v>891</v>
@@ -2431,7 +2518,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33">
         <v>981</v>
@@ -2448,7 +2535,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34">
         <v>184</v>
@@ -2465,7 +2552,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35">
         <v>297</v>
@@ -2482,7 +2569,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36">
         <v>745</v>
@@ -2499,7 +2586,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37">
         <v>239</v>
@@ -2516,7 +2603,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38">
         <v>886</v>
@@ -2533,7 +2620,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39">
         <v>297</v>
@@ -2550,7 +2637,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40">
         <v>520</v>
@@ -2567,7 +2654,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41">
         <v>95</v>
@@ -2584,7 +2671,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B42">
         <v>806</v>
@@ -2601,7 +2688,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43">
         <v>612</v>
@@ -2618,7 +2705,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44">
         <v>372</v>
@@ -2635,7 +2722,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45">
         <v>318</v>
@@ -2652,7 +2739,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46">
         <v>791</v>
@@ -2669,7 +2756,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47">
         <v>817</v>
@@ -2686,7 +2773,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48">
         <v>903</v>
@@ -2703,7 +2790,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49">
         <v>1158</v>
@@ -2720,7 +2807,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B50">
         <v>722</v>
@@ -2737,7 +2824,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B51">
         <v>706</v>
@@ -2754,7 +2841,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52">
         <v>344</v>
@@ -2771,7 +2858,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B53">
         <v>1496</v>
@@ -2788,7 +2875,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B54">
         <v>434</v>
@@ -2805,7 +2892,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B55">
         <v>1155</v>
@@ -2822,7 +2909,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B56">
         <v>508</v>
@@ -2839,7 +2926,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B57">
         <v>293</v>
@@ -2856,7 +2943,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B58">
         <v>640</v>
@@ -2873,7 +2960,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B59">
         <v>506</v>
@@ -2890,7 +2977,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B60">
         <v>365</v>
@@ -2907,7 +2994,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B61">
         <v>799</v>
@@ -2924,7 +3011,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B62">
         <v>697</v>
@@ -2941,7 +3028,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B63">
         <v>313</v>
@@ -2958,7 +3045,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B64">
         <v>1016</v>
@@ -2975,7 +3062,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B65">
         <v>603</v>
@@ -2992,7 +3079,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B66">
         <v>548</v>
@@ -3009,7 +3096,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B67">
         <v>883</v>
@@ -3026,7 +3113,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B68">
         <v>1083</v>
@@ -3043,7 +3130,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B69">
         <v>723</v>
@@ -3060,7 +3147,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B70">
         <v>746</v>
@@ -3077,7 +3164,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B71">
         <v>404</v>
@@ -3094,7 +3181,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B72">
         <v>755</v>
@@ -3111,7 +3198,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B73">
         <v>580</v>
@@ -3128,7 +3215,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B74">
         <v>763</v>
@@ -3145,7 +3232,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B75">
         <v>235</v>
@@ -3162,7 +3249,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B76">
         <v>445</v>
@@ -3179,7 +3266,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B77">
         <v>740</v>
@@ -3196,7 +3283,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B78">
         <v>485</v>

--- a/~Tests/Dawnx.Test/NPOI/test.xlsx
+++ b/~Tests/Dawnx.Test/NPOI/test.xlsx
@@ -1459,9 +1459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
